--- a/data/demographics.xlsx
+++ b/data/demographics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sa17/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71955325-0C1D-E941-BBB9-98C27714E925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB88CA8A-8BAF-474F-A641-EFEF07796E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2480" yWindow="740" windowWidth="23560" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t>Age</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>Disability</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -586,7 +589,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -807,6 +810,9 @@
       <c r="A6" t="s">
         <v>46</v>
       </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
       <c r="C6" t="s">
         <v>47</v>
       </c>
